--- a/Data/03_Arbeid og næringsliv/2020-tall/Andel sysselsatte per næring - Sysselsatte fig 5 13470.xlsx
+++ b/Data/03_Arbeid og næringsliv/2020-tall/Andel sysselsatte per næring - Sysselsatte fig 5 13470.xlsx
@@ -5,19 +5,18 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erl1004\OneDrive - Vestfold og Telemark fylkeskommune\GitHub\Telemark\Data\03_Arbeid og næringsliv\2020-tall\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/Telemark/Data/03_Arbeid og næringsliv/2020-tall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{676AB3E5-B540-4D84-8BCD-607C59558E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{1FCB1376-3B6A-4CFE-A6D6-A120784A8713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F9987FC-6087-481C-95B3-CBDB87A03C60}"/>
   <bookViews>
-    <workbookView xWindow="23610" yWindow="615" windowWidth="27330" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23610" yWindow="615" windowWidth="27330" windowHeight="12360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SysselsatteArb SSB 13470" sheetId="6" r:id="rId1"/>
     <sheet name="Hele landet SSB 13470" sheetId="7" r:id="rId2"/>
     <sheet name="Viz Telemark" sheetId="5" r:id="rId3"/>
     <sheet name="Viz Vestfold" sheetId="8" r:id="rId4"/>
-    <sheet name="Forklaring" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="EksterneData_1" localSheetId="1" hidden="1">'Hele landet SSB 13470'!$A$1:$F$17</definedName>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="46">
   <si>
     <t>01-03 Jordbruk, skogbruk og fiske</t>
   </si>
@@ -190,9 +189,6 @@
   </si>
   <si>
     <t>Prosent sysselsatte</t>
-  </si>
-  <si>
-    <t>Tallene skal oppdatere seg til siste år ved å oppdatere spørringene.</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2248,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2540,29 +2536,6 @@
       <c r="G17" s="3"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A204849C-3A8E-43D6-BCED-C0B68472846B}">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
